--- a/metrics/MAPE/upto time/Infarto de Miocardio (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Infarto de Miocardio (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8664295109013.312</v>
+        <v>8623412847200.392</v>
       </c>
       <c r="C3" t="n">
-        <v>8686830017217.12</v>
+        <v>8033418272177.517</v>
       </c>
       <c r="D3" t="n">
-        <v>8475688374853.764</v>
+        <v>9243771769544.83</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12906746619349.75</v>
+        <v>12971774346314.68</v>
       </c>
       <c r="C4" t="n">
-        <v>12952678483964.94</v>
+        <v>13116317775373.44</v>
       </c>
       <c r="D4" t="n">
-        <v>13075630166804.12</v>
+        <v>12933025735861.71</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>408468707033211.9</v>
+        <v>406856116187519.1</v>
       </c>
       <c r="C5" t="n">
-        <v>369750092173917.1</v>
+        <v>514747844883142.9</v>
       </c>
       <c r="D5" t="n">
-        <v>407373611211507.2</v>
+        <v>550684110982665.4</v>
       </c>
     </row>
   </sheetData>
